--- a/database/KNN/SIFT_knn.xlsx
+++ b/database/KNN/SIFT_knn.xlsx
@@ -156,7 +156,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -168,6 +168,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.499984740745262"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -193,11 +201,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -228,7 +237,7 @@
     <tableColumn id="11" name="0.95"/>
     <tableColumn id="12" name="1"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -519,8 +528,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C19" workbookViewId="0">
-      <selection activeCell="O34" sqref="O34"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -583,40 +592,40 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="4">
         <v>0.5</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="4">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <v>0.6</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="4">
         <v>0.65</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="4">
         <v>0.7</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="4">
         <v>0.75</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="4">
         <v>0.8</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="4">
         <v>0.85</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="4">
         <v>0.9</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="4">
         <v>0.95</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="4">
         <v>1</v>
       </c>
     </row>
@@ -630,7 +639,7 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F6">
@@ -677,7 +686,7 @@
       <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="F7">
@@ -724,7 +733,7 @@
       <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F8">
@@ -771,7 +780,7 @@
       <c r="C9">
         <v>0.171999931335449</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="F9">
@@ -818,7 +827,7 @@
       <c r="C10">
         <v>0.35899996757507302</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="F10">
@@ -865,7 +874,7 @@
       <c r="C11">
         <v>0.18799996376037501</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="F11">
@@ -912,7 +921,7 @@
       <c r="C12">
         <v>0.171999931335449</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" s="4" t="s">
         <v>22</v>
       </c>
       <c r="F12">
@@ -959,7 +968,7 @@
       <c r="C13">
         <v>9.4000101089477497E-2</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" s="4" t="s">
         <v>23</v>
       </c>
       <c r="F13">
@@ -1006,7 +1015,7 @@
       <c r="C14">
         <v>0.61199998855590798</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="F14">
@@ -1053,7 +1062,7 @@
       <c r="C15">
         <v>0.98299980163574197</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="4" t="s">
         <v>25</v>
       </c>
       <c r="F15">
@@ -1100,7 +1109,7 @@
       <c r="C16">
         <v>7.8000068664550698E-2</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="4" t="s">
         <v>26</v>
       </c>
       <c r="F16">

--- a/database/KNN/SIFT_knn.xlsx
+++ b/database/KNN/SIFT_knn.xlsx
@@ -12,6 +12,7 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="sift_bf_knn_add" localSheetId="0">Feuil1!$S$7:$U$72</definedName>
     <definedName name="sift_knn_resultats" localSheetId="0">Feuil1!$A$2:$C$326</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -20,7 +21,15 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="sift_knn_resultats" type="6" refreshedVersion="3" background="1" saveData="1">
+  <connection id="1" name="sift_bf_knn_add" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="C:\Users\ACHAR\Documents\PFEE\database\sift_bf_knn_add.csv">
+      <textFields count="2">
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="2" name="sift_knn_resultats" type="6" refreshedVersion="3" background="1" saveData="1">
     <textPr codePage="437" sourceFile="C:\Users\ACHAR\Documents\PFEE\database\sift_knn_resultats.csv">
       <textFields count="3">
         <textField/>
@@ -33,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="510" uniqueCount="52">
   <si>
     <t>image type</t>
   </si>
@@ -113,43 +122,82 @@
     <t>rose_blurred</t>
   </si>
   <si>
-    <t>Average</t>
+    <t>condame_blurred</t>
   </si>
   <si>
-    <t>Colonne1</t>
+    <t>sift_bf_knn_add.csv</t>
   </si>
   <si>
-    <t>0.5</t>
+    <t>new\condame_blurred.jpg</t>
   </si>
   <si>
-    <t>0.55</t>
+    <t>new\condame_lumino.jpg</t>
   </si>
   <si>
-    <t>0.6</t>
+    <t>new\likeblack_45.png</t>
   </si>
   <si>
-    <t>0.65</t>
+    <t>new\likeblack_cropped.jpg</t>
   </si>
   <si>
-    <t>0.7</t>
+    <t>new\memory_blurred.jpg</t>
   </si>
   <si>
-    <t>0.75</t>
+    <t>likeblack_45</t>
   </si>
   <si>
-    <t>0.8</t>
+    <t>likeblack_cropped</t>
   </si>
   <si>
-    <t>0.85</t>
+    <t>memory_blurred</t>
   </si>
   <si>
-    <t>0.9</t>
+    <t>condame_lumino</t>
   </si>
   <si>
-    <t>0.95</t>
+    <t>original</t>
   </si>
   <si>
-    <t>1</t>
+    <t>cropped</t>
+  </si>
+  <si>
+    <t>rotated_90</t>
+  </si>
+  <si>
+    <t>luminous</t>
+  </si>
+  <si>
+    <t>rotated_45</t>
+  </si>
+  <si>
+    <t>blurred</t>
+  </si>
+  <si>
+    <t>other1</t>
+  </si>
+  <si>
+    <t>other2</t>
+  </si>
+  <si>
+    <t>other3</t>
+  </si>
+  <si>
+    <t>other4</t>
+  </si>
+  <si>
+    <t>other5</t>
+  </si>
+  <si>
+    <t>other6</t>
+  </si>
+  <si>
+    <t>other7</t>
+  </si>
+  <si>
+    <t>other8</t>
+  </si>
+  <si>
+    <t>other9</t>
   </si>
 </sst>
 </file>
@@ -201,11 +249,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -217,28 +263,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sift_knn_resultats" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sift_knn_resultats" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="G18:R33" totalsRowShown="0">
-  <autoFilter ref="G18:R33"/>
-  <tableColumns count="12">
-    <tableColumn id="1" name="Colonne1"/>
-    <tableColumn id="2" name="0.5"/>
-    <tableColumn id="3" name="0.55"/>
-    <tableColumn id="4" name="0.6"/>
-    <tableColumn id="5" name="0.65"/>
-    <tableColumn id="6" name="0.7"/>
-    <tableColumn id="7" name="0.75"/>
-    <tableColumn id="8" name="0.8"/>
-    <tableColumn id="9" name="0.85"/>
-    <tableColumn id="10" name="0.9"/>
-    <tableColumn id="11" name="0.95"/>
-    <tableColumn id="12" name="1"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="sift_bf_knn_add" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -526,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R326"/>
+  <dimension ref="A1:W326"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" topLeftCell="B21" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -537,11 +566,13 @@
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" customWidth="1"/>
     <col min="7" max="15" width="11.5703125" customWidth="1"/>
     <col min="16" max="18" width="12.5703125" customWidth="1"/>
+    <col min="19" max="19" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:21">
       <c r="A1" t="s">
         <v>13</v>
       </c>
@@ -549,7 +580,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -560,7 +591,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -571,7 +602,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -581,8 +612,11 @@
       <c r="C4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="S4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -592,44 +626,44 @@
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>0.5</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>0.55000000000000004</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>0.6</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <v>0.65</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="2">
         <v>0.7</v>
       </c>
-      <c r="K5" s="4">
+      <c r="K5" s="2">
         <v>0.75</v>
       </c>
-      <c r="L5" s="4">
+      <c r="L5" s="2">
         <v>0.8</v>
       </c>
-      <c r="M5" s="4">
+      <c r="M5" s="2">
         <v>0.85</v>
       </c>
-      <c r="N5" s="4">
+      <c r="N5" s="2">
         <v>0.9</v>
       </c>
-      <c r="O5" s="4">
+      <c r="O5" s="2">
         <v>0.95</v>
       </c>
-      <c r="P5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="P5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -639,8 +673,8 @@
       <c r="C6" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>16</v>
+      <c r="E6" s="2" t="s">
+        <v>37</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -676,7 +710,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -686,44 +720,53 @@
       <c r="C7" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>17</v>
+      <c r="E7" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="F7">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="G7">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="H7">
-        <v>63</v>
+        <v>89</v>
       </c>
       <c r="I7">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="J7">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="K7">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="L7">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="M7">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="N7">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="O7">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="P7">
         <v>100</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="S7" t="s">
+        <v>0</v>
+      </c>
+      <c r="T7" t="s">
+        <v>1</v>
+      </c>
+      <c r="U7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -733,8 +776,8 @@
       <c r="C8" t="s">
         <v>2</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>18</v>
+      <c r="E8" s="2" t="s">
+        <v>39</v>
       </c>
       <c r="F8">
         <v>82</v>
@@ -769,8 +812,17 @@
       <c r="P8">
         <v>100</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="S8" t="s">
+        <v>28</v>
+      </c>
+      <c r="T8">
+        <v>10</v>
+      </c>
+      <c r="U8">
+        <v>4.6999931335449198E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
         <v>3</v>
       </c>
@@ -780,44 +832,53 @@
       <c r="C9">
         <v>0.171999931335449</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>19</v>
+      <c r="E9" s="2" t="s">
+        <v>40</v>
       </c>
       <c r="F9">
-        <v>88</v>
+        <v>67</v>
       </c>
       <c r="G9">
-        <v>88</v>
+        <v>69</v>
       </c>
       <c r="H9">
+        <v>70</v>
+      </c>
+      <c r="I9">
+        <v>71</v>
+      </c>
+      <c r="J9">
+        <v>74</v>
+      </c>
+      <c r="K9">
+        <v>76</v>
+      </c>
+      <c r="L9">
+        <v>78</v>
+      </c>
+      <c r="M9">
+        <v>80</v>
+      </c>
+      <c r="N9">
+        <v>84</v>
+      </c>
+      <c r="O9">
         <v>89</v>
       </c>
-      <c r="I9">
-        <v>89</v>
-      </c>
-      <c r="J9">
-        <v>89</v>
-      </c>
-      <c r="K9">
-        <v>90</v>
-      </c>
-      <c r="L9">
-        <v>90</v>
-      </c>
-      <c r="M9">
-        <v>92</v>
-      </c>
-      <c r="N9">
-        <v>93</v>
-      </c>
-      <c r="O9">
-        <v>95</v>
-      </c>
       <c r="P9">
         <v>100</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="S9" t="s">
+        <v>29</v>
+      </c>
+      <c r="T9">
+        <v>67</v>
+      </c>
+      <c r="U9">
+        <v>1.17400002479553</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
         <v>4</v>
       </c>
@@ -827,44 +888,53 @@
       <c r="C10">
         <v>0.35899996757507302</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>20</v>
+      <c r="E10" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>63</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="J10">
-        <v>4</v>
+        <v>68</v>
       </c>
       <c r="K10">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="L10">
-        <v>10</v>
+        <v>73</v>
       </c>
       <c r="M10">
-        <v>15</v>
+        <v>77</v>
       </c>
       <c r="N10">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="O10">
-        <v>49</v>
+        <v>89</v>
       </c>
       <c r="P10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="S10" t="s">
+        <v>30</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0.95600008964538497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -874,44 +944,53 @@
       <c r="C11">
         <v>0.18799996376037501</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>21</v>
+      <c r="E11" s="2" t="s">
+        <v>42</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="L11">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="M11">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="N11">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="O11">
-        <v>46</v>
+        <v>61</v>
       </c>
       <c r="P11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="S11" t="s">
+        <v>31</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0.24800014495849601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -921,44 +1000,53 @@
       <c r="C12">
         <v>0.171999931335449</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>22</v>
+      <c r="E12" s="2" t="s">
+        <v>43</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="L12">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="M12">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="N12">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="O12">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="P12">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="S12" t="s">
+        <v>32</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>6.1999797821044901E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
         <v>7</v>
       </c>
@@ -968,44 +1056,53 @@
       <c r="C13">
         <v>9.4000101089477497E-2</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>23</v>
+      <c r="E13" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
         <v>4</v>
       </c>
-      <c r="L13">
-        <v>6</v>
-      </c>
       <c r="M13">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N13">
         <v>20</v>
       </c>
       <c r="O13">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="P13">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="S13" t="s">
+        <v>0</v>
+      </c>
+      <c r="T13" t="s">
+        <v>1</v>
+      </c>
+      <c r="U13" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1015,8 +1112,8 @@
       <c r="C14">
         <v>0.61199998855590798</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>24</v>
+      <c r="E14" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="F14">
         <v>0</v>
@@ -1028,31 +1125,40 @@
         <v>0</v>
       </c>
       <c r="I14">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>1</v>
       </c>
       <c r="K14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L14">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M14">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N14">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O14">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="P14">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="S14" t="s">
+        <v>28</v>
+      </c>
+      <c r="T14">
+        <v>12</v>
+      </c>
+      <c r="U14">
+        <v>4.6000003814697203E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
         <v>9</v>
       </c>
@@ -1062,44 +1168,53 @@
       <c r="C15">
         <v>0.98299980163574197</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>25</v>
+      <c r="E15" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="L15">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="M15">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N15">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="O15">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="P15">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="S15" t="s">
+        <v>29</v>
+      </c>
+      <c r="T15">
+        <v>69</v>
+      </c>
+      <c r="U15">
+        <v>1.20099997520446</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1109,55 +1224,53 @@
       <c r="C16">
         <v>7.8000068664550698E-2</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>6</v>
+      </c>
+      <c r="M16">
+        <v>13</v>
+      </c>
+      <c r="N16">
         <v>26</v>
       </c>
-      <c r="F16">
-        <f>AVERAGE(F6:F15)</f>
-        <v>32.6</v>
-      </c>
-      <c r="G16">
-        <f t="shared" ref="G16:P16" si="0">AVERAGE(G6:G15)</f>
-        <v>33.200000000000003</v>
-      </c>
-      <c r="H16">
-        <f t="shared" si="0"/>
-        <v>34.1</v>
-      </c>
-      <c r="I16">
-        <f t="shared" si="0"/>
-        <v>34.5</v>
-      </c>
-      <c r="J16">
-        <f t="shared" si="0"/>
-        <v>35.200000000000003</v>
-      </c>
-      <c r="K16">
-        <f t="shared" si="0"/>
-        <v>36.700000000000003</v>
-      </c>
-      <c r="L16">
-        <f t="shared" si="0"/>
-        <v>38.799999999999997</v>
-      </c>
-      <c r="M16">
-        <f t="shared" si="0"/>
-        <v>42.8</v>
-      </c>
-      <c r="N16">
-        <f t="shared" si="0"/>
-        <v>50.7</v>
-      </c>
       <c r="O16">
-        <f t="shared" si="0"/>
-        <v>65.7</v>
+        <v>48</v>
       </c>
       <c r="P16">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>100</v>
+      </c>
+      <c r="S16" t="s">
+        <v>30</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>3.6069998741149898</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -1167,8 +1280,53 @@
       <c r="C17">
         <v>0.39100003242492598</v>
       </c>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="E17" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>5</v>
+      </c>
+      <c r="M17">
+        <v>12</v>
+      </c>
+      <c r="N17">
+        <v>26</v>
+      </c>
+      <c r="O17">
+        <v>49</v>
+      </c>
+      <c r="P17">
+        <v>100</v>
+      </c>
+      <c r="S17" t="s">
+        <v>31</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0.21899986267089799</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -1178,44 +1336,53 @@
       <c r="C18">
         <v>0.234999895095825</v>
       </c>
-      <c r="G18" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" t="s">
-        <v>28</v>
-      </c>
-      <c r="I18" t="s">
-        <v>29</v>
-      </c>
-      <c r="J18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K18" t="s">
-        <v>31</v>
-      </c>
-      <c r="L18" t="s">
+      <c r="E18" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>4</v>
+      </c>
+      <c r="M18">
+        <v>10</v>
+      </c>
+      <c r="N18">
+        <v>22</v>
+      </c>
+      <c r="O18">
+        <v>48</v>
+      </c>
+      <c r="P18">
+        <v>100</v>
+      </c>
+      <c r="S18" t="s">
         <v>32</v>
       </c>
-      <c r="M18" t="s">
-        <v>33</v>
-      </c>
-      <c r="N18" t="s">
-        <v>34</v>
-      </c>
-      <c r="O18" t="s">
-        <v>35</v>
-      </c>
-      <c r="P18" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>37</v>
-      </c>
-      <c r="R18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0.11000013351440401</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
         <v>0</v>
       </c>
@@ -1225,44 +1392,53 @@
       <c r="C19" t="s">
         <v>2</v>
       </c>
-      <c r="G19" t="s">
-        <v>16</v>
+      <c r="E19" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K19">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="M19">
-        <v>100</v>
+        <v>11</v>
       </c>
       <c r="N19">
-        <v>100</v>
+        <v>22</v>
       </c>
       <c r="O19">
-        <v>100</v>
+        <v>49</v>
       </c>
       <c r="P19">
         <v>100</v>
       </c>
-      <c r="Q19">
-        <v>100</v>
-      </c>
-      <c r="R19">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="S19" t="s">
+        <v>0</v>
+      </c>
+      <c r="T19" t="s">
+        <v>1</v>
+      </c>
+      <c r="U19" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -1272,44 +1448,53 @@
       <c r="C20">
         <v>0.169000148773193</v>
       </c>
-      <c r="G20" t="s">
-        <v>19</v>
+      <c r="E20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
       </c>
       <c r="H20">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>88</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>89</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>89</v>
+        <v>2</v>
       </c>
       <c r="L20">
-        <v>89</v>
+        <v>4</v>
       </c>
       <c r="M20">
-        <v>90</v>
+        <v>9</v>
       </c>
       <c r="N20">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="O20">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="P20">
-        <v>93</v>
-      </c>
-      <c r="Q20">
-        <v>95</v>
-      </c>
-      <c r="R20">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>100</v>
+      </c>
+      <c r="S20" t="s">
+        <v>28</v>
+      </c>
+      <c r="T20">
+        <v>15</v>
+      </c>
+      <c r="U20">
+        <v>4.6999931335449198E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -1319,44 +1504,17 @@
       <c r="C21">
         <v>0.382999897003173</v>
       </c>
-      <c r="G21" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21">
-        <v>82</v>
-      </c>
-      <c r="I21">
-        <v>83</v>
-      </c>
-      <c r="J21">
-        <v>85</v>
-      </c>
-      <c r="K21">
-        <v>86</v>
-      </c>
-      <c r="L21">
-        <v>86</v>
-      </c>
-      <c r="M21">
-        <v>88</v>
-      </c>
-      <c r="N21">
-        <v>89</v>
-      </c>
-      <c r="O21">
-        <v>90</v>
-      </c>
-      <c r="P21">
-        <v>92</v>
-      </c>
-      <c r="Q21">
-        <v>94</v>
-      </c>
-      <c r="R21">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="S21" t="s">
+        <v>29</v>
+      </c>
+      <c r="T21">
+        <v>70</v>
+      </c>
+      <c r="U21">
+        <v>1.3019998073577801</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1366,44 +1524,17 @@
       <c r="C22">
         <v>0.187000036239624</v>
       </c>
-      <c r="G22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22">
-        <v>56</v>
-      </c>
-      <c r="I22">
-        <v>59</v>
-      </c>
-      <c r="J22">
-        <v>63</v>
-      </c>
-      <c r="K22">
-        <v>65</v>
-      </c>
-      <c r="L22">
-        <v>68</v>
-      </c>
-      <c r="M22">
-        <v>70</v>
-      </c>
-      <c r="N22">
-        <v>73</v>
-      </c>
-      <c r="O22">
-        <v>77</v>
-      </c>
-      <c r="P22">
-        <v>81</v>
-      </c>
-      <c r="Q22">
-        <v>89</v>
-      </c>
-      <c r="R22">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="S22" t="s">
+        <v>30</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0.70199990272521895</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -1413,44 +1544,17 @@
       <c r="C23">
         <v>0.156999826431274</v>
       </c>
-      <c r="G23" t="s">
-        <v>20</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>1</v>
-      </c>
-      <c r="J23">
-        <v>2</v>
-      </c>
-      <c r="K23">
-        <v>2</v>
-      </c>
-      <c r="L23">
-        <v>4</v>
-      </c>
-      <c r="M23">
-        <v>6</v>
-      </c>
-      <c r="N23">
-        <v>10</v>
-      </c>
-      <c r="O23">
-        <v>15</v>
-      </c>
-      <c r="P23">
-        <v>26</v>
-      </c>
-      <c r="Q23">
-        <v>49</v>
-      </c>
-      <c r="R23">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="S23" t="s">
+        <v>31</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0.30999994277954102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
         <v>7</v>
       </c>
@@ -1460,44 +1564,17 @@
       <c r="C24">
         <v>0.102999925613403</v>
       </c>
-      <c r="G24" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>2</v>
-      </c>
-      <c r="N24">
-        <v>5</v>
-      </c>
-      <c r="O24">
-        <v>12</v>
-      </c>
-      <c r="P24">
-        <v>26</v>
-      </c>
-      <c r="Q24">
-        <v>49</v>
-      </c>
-      <c r="R24">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="S24" t="s">
+        <v>32</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>9.6999883651733398E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
         <v>8</v>
       </c>
@@ -1507,44 +1584,17 @@
       <c r="C25">
         <v>0.64000010490417403</v>
       </c>
-      <c r="G25" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
-      </c>
-      <c r="K25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-      <c r="M25">
-        <v>3</v>
-      </c>
-      <c r="N25">
-        <v>6</v>
-      </c>
-      <c r="O25">
-        <v>13</v>
-      </c>
-      <c r="P25">
-        <v>26</v>
-      </c>
-      <c r="Q25">
-        <v>48</v>
-      </c>
-      <c r="R25">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="S25" t="s">
+        <v>0</v>
+      </c>
+      <c r="T25" t="s">
+        <v>1</v>
+      </c>
+      <c r="U25" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -1554,44 +1604,17 @@
       <c r="C26">
         <v>0.40700006484985302</v>
       </c>
-      <c r="G26" t="s">
-        <v>21</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>0</v>
-      </c>
-      <c r="M26">
-        <v>2</v>
-      </c>
-      <c r="N26">
-        <v>4</v>
-      </c>
-      <c r="O26">
-        <v>8</v>
-      </c>
-      <c r="P26">
-        <v>20</v>
-      </c>
-      <c r="Q26">
-        <v>46</v>
-      </c>
-      <c r="R26">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="S26" t="s">
+        <v>28</v>
+      </c>
+      <c r="T26">
+        <v>18</v>
+      </c>
+      <c r="U26">
+        <v>3.69999408721923E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
         <v>10</v>
       </c>
@@ -1601,44 +1624,17 @@
       <c r="C27">
         <v>5.1999807357788003E-2</v>
       </c>
-      <c r="G27" t="s">
-        <v>22</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="M27">
-        <v>2</v>
-      </c>
-      <c r="N27">
-        <v>5</v>
-      </c>
-      <c r="O27">
-        <v>11</v>
-      </c>
-      <c r="P27">
-        <v>23</v>
-      </c>
-      <c r="Q27">
-        <v>44</v>
-      </c>
-      <c r="R27">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="28" spans="1:18">
+      <c r="S27" t="s">
+        <v>29</v>
+      </c>
+      <c r="T27">
+        <v>71</v>
+      </c>
+      <c r="U27">
+        <v>1.6189999580383301</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
         <v>11</v>
       </c>
@@ -1648,44 +1644,17 @@
       <c r="C28">
         <v>0.34899997711181602</v>
       </c>
-      <c r="G28" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>1</v>
-      </c>
-      <c r="J28">
-        <v>2</v>
-      </c>
-      <c r="K28">
-        <v>2</v>
-      </c>
-      <c r="L28">
-        <v>3</v>
-      </c>
-      <c r="M28">
-        <v>4</v>
-      </c>
-      <c r="N28">
-        <v>6</v>
-      </c>
-      <c r="O28">
-        <v>10</v>
-      </c>
-      <c r="P28">
-        <v>20</v>
-      </c>
-      <c r="Q28">
-        <v>43</v>
-      </c>
-      <c r="R28">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18">
+      <c r="S28" t="s">
+        <v>30</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>1.9400000572204501</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -1695,8 +1664,17 @@
       <c r="C29">
         <v>0.25500011444091703</v>
       </c>
-    </row>
-    <row r="30" spans="1:18">
+      <c r="S29" t="s">
+        <v>31</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0.33800005912780701</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
         <v>0</v>
       </c>
@@ -1706,8 +1684,17 @@
       <c r="C30" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="31" spans="1:18">
+      <c r="S30" t="s">
+        <v>32</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>6.8000078201293904E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -1717,8 +1704,17 @@
       <c r="C31">
         <v>0.15700006484985299</v>
       </c>
-    </row>
-    <row r="32" spans="1:18">
+      <c r="S31" t="s">
+        <v>0</v>
+      </c>
+      <c r="T31" t="s">
+        <v>1</v>
+      </c>
+      <c r="U31" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -1728,8 +1724,17 @@
       <c r="C32">
         <v>0.41699981689453097</v>
       </c>
-    </row>
-    <row r="33" spans="1:18">
+      <c r="S32" t="s">
+        <v>28</v>
+      </c>
+      <c r="T32">
+        <v>20</v>
+      </c>
+      <c r="U32">
+        <v>4.7000169754028299E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1739,44 +1744,23 @@
       <c r="C33">
         <v>0.164000034332275</v>
       </c>
-      <c r="E33" s="2">
+      <c r="E33" s="1">
         <v>0.5</v>
       </c>
-      <c r="F33" s="2">
+      <c r="F33" s="1">
         <v>0.55000000000000004</v>
       </c>
-      <c r="G33" s="3">
-        <v>0.6</v>
-      </c>
-      <c r="H33" s="3">
-        <v>0.65</v>
-      </c>
-      <c r="I33" s="3">
-        <v>0.7</v>
-      </c>
-      <c r="J33" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="K33" s="3">
-        <v>0.8</v>
-      </c>
-      <c r="L33" s="3">
-        <v>0.85</v>
-      </c>
-      <c r="M33" s="3">
-        <v>0.9</v>
-      </c>
-      <c r="N33" s="3">
-        <v>0.95</v>
-      </c>
-      <c r="O33" s="3">
-        <v>1</v>
-      </c>
-      <c r="P33" s="1"/>
-      <c r="Q33" s="1"/>
-      <c r="R33" s="1"/>
-    </row>
-    <row r="34" spans="1:18">
+      <c r="S33" t="s">
+        <v>29</v>
+      </c>
+      <c r="T33">
+        <v>74</v>
+      </c>
+      <c r="U33">
+        <v>1.0120000839233301</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
         <v>6</v>
       </c>
@@ -1786,48 +1770,57 @@
       <c r="C34">
         <v>0.171999931335449</v>
       </c>
-      <c r="E34" s="2">
-        <f>AVERAGE(E35:E64)</f>
+      <c r="E34" s="1">
+        <f t="shared" ref="E34:N34" si="0">AVERAGE(E35:E64)</f>
         <v>0.28216663996378549</v>
       </c>
-      <c r="F34" s="2">
-        <f t="shared" ref="F34:I34" si="1">AVERAGE(F35:F64)</f>
+      <c r="F34" s="1">
+        <f t="shared" si="0"/>
         <v>0.21386666297912565</v>
       </c>
-      <c r="G34" s="2">
-        <f t="shared" si="1"/>
+      <c r="G34" s="1">
+        <f t="shared" si="0"/>
         <v>0.2123000224431352</v>
       </c>
-      <c r="H34" s="2">
-        <f t="shared" si="1"/>
+      <c r="H34" s="1">
+        <f t="shared" si="0"/>
         <v>0.22346668243408169</v>
       </c>
-      <c r="I34" s="2">
-        <f t="shared" si="1"/>
+      <c r="I34" s="1">
+        <f t="shared" si="0"/>
         <v>0.21486667792002326</v>
       </c>
-      <c r="J34" s="2">
-        <f>AVERAGE(J35:J64)</f>
+      <c r="J34" s="1">
+        <f t="shared" si="0"/>
         <v>0.22749998569488494</v>
       </c>
-      <c r="K34" s="2">
-        <f t="shared" ref="K34:N34" si="2">AVERAGE(K35:K64)</f>
+      <c r="K34" s="1">
+        <f t="shared" si="0"/>
         <v>0.22610003948211632</v>
       </c>
-      <c r="L34" s="2">
-        <f t="shared" si="2"/>
+      <c r="L34" s="1">
+        <f t="shared" si="0"/>
         <v>0.21356666882832809</v>
       </c>
-      <c r="M34" s="2">
-        <f t="shared" si="2"/>
+      <c r="M34" s="1">
+        <f t="shared" si="0"/>
         <v>0.22003332773844367</v>
       </c>
-      <c r="N34" s="2">
-        <f t="shared" si="2"/>
+      <c r="N34" s="1">
+        <f t="shared" si="0"/>
         <v>0.21556668281555147</v>
       </c>
-    </row>
-    <row r="35" spans="1:18">
+      <c r="S34" t="s">
+        <v>30</v>
+      </c>
+      <c r="T34">
+        <v>1</v>
+      </c>
+      <c r="U34">
+        <v>1.04999995231628</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
         <v>7</v>
       </c>
@@ -1867,8 +1860,17 @@
       <c r="N35">
         <v>0.17300009727478</v>
       </c>
-    </row>
-    <row r="36" spans="1:18">
+      <c r="S35" t="s">
+        <v>31</v>
+      </c>
+      <c r="T35">
+        <v>1</v>
+      </c>
+      <c r="U35">
+        <v>0.25599980354308999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
         <v>8</v>
       </c>
@@ -1908,8 +1910,17 @@
       <c r="N36">
         <v>0.21799993515014601</v>
       </c>
-    </row>
-    <row r="37" spans="1:18">
+      <c r="S36" t="s">
+        <v>32</v>
+      </c>
+      <c r="T36">
+        <v>0</v>
+      </c>
+      <c r="U36">
+        <v>7.7999830245971596E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
         <v>9</v>
       </c>
@@ -1949,8 +1960,17 @@
       <c r="N37">
         <v>0.15600013732910101</v>
       </c>
-    </row>
-    <row r="38" spans="1:18">
+      <c r="S37" t="s">
+        <v>0</v>
+      </c>
+      <c r="T37" t="s">
+        <v>1</v>
+      </c>
+      <c r="U37" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
         <v>10</v>
       </c>
@@ -1990,8 +2010,17 @@
       <c r="N38">
         <v>0.17100000381469699</v>
       </c>
-    </row>
-    <row r="39" spans="1:18">
+      <c r="S38" t="s">
+        <v>28</v>
+      </c>
+      <c r="T38">
+        <v>23</v>
+      </c>
+      <c r="U38">
+        <v>4.6000003814697203E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
         <v>11</v>
       </c>
@@ -2031,8 +2060,17 @@
       <c r="N39">
         <v>0.118000030517578</v>
       </c>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="S39" t="s">
+        <v>29</v>
+      </c>
+      <c r="T39">
+        <v>76</v>
+      </c>
+      <c r="U39">
+        <v>1.01399993896484</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
         <v>12</v>
       </c>
@@ -2072,8 +2110,17 @@
       <c r="N40">
         <v>0.61700010299682595</v>
       </c>
-    </row>
-    <row r="41" spans="1:18">
+      <c r="S40" t="s">
+        <v>30</v>
+      </c>
+      <c r="T40">
+        <v>2</v>
+      </c>
+      <c r="U40">
+        <v>0.38700008392333901</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
         <v>0</v>
       </c>
@@ -2113,8 +2160,17 @@
       <c r="N41">
         <v>0.33899998664855902</v>
       </c>
-    </row>
-    <row r="42" spans="1:18">
+      <c r="S41" t="s">
+        <v>31</v>
+      </c>
+      <c r="T41">
+        <v>3</v>
+      </c>
+      <c r="U41">
+        <v>0.25300002098083402</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" t="s">
         <v>3</v>
       </c>
@@ -2154,8 +2210,17 @@
       <c r="N42">
         <v>7.5999975204467704E-2</v>
       </c>
-    </row>
-    <row r="43" spans="1:18">
+      <c r="S42" t="s">
+        <v>32</v>
+      </c>
+      <c r="T42">
+        <v>2</v>
+      </c>
+      <c r="U42">
+        <v>6.8000078201293904E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
         <v>4</v>
       </c>
@@ -2195,8 +2260,17 @@
       <c r="N43">
         <v>0.215999841690063</v>
       </c>
-    </row>
-    <row r="44" spans="1:18">
+      <c r="S43" t="s">
+        <v>0</v>
+      </c>
+      <c r="T43" t="s">
+        <v>1</v>
+      </c>
+      <c r="U43" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -2236,8 +2310,17 @@
       <c r="N44">
         <v>0.111000061035156</v>
       </c>
-    </row>
-    <row r="45" spans="1:18">
+      <c r="S44" t="s">
+        <v>28</v>
+      </c>
+      <c r="T44">
+        <v>29</v>
+      </c>
+      <c r="U44">
+        <v>6.2000036239624003E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
         <v>6</v>
       </c>
@@ -2277,8 +2360,17 @@
       <c r="N45">
         <v>0.17300009727478</v>
       </c>
-    </row>
-    <row r="46" spans="1:18">
+      <c r="S45" t="s">
+        <v>29</v>
+      </c>
+      <c r="T45">
+        <v>78</v>
+      </c>
+      <c r="U45">
+        <v>1.1999998092651301</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
         <v>7</v>
       </c>
@@ -2318,8 +2410,17 @@
       <c r="N46">
         <v>0.22000002861022899</v>
       </c>
-    </row>
-    <row r="47" spans="1:18">
+      <c r="S46" t="s">
+        <v>30</v>
+      </c>
+      <c r="T46">
+        <v>4</v>
+      </c>
+      <c r="U46">
+        <v>1.50499987602233</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21">
       <c r="A47" t="s">
         <v>8</v>
       </c>
@@ -2359,8 +2460,17 @@
       <c r="N47">
         <v>0.15700006484985299</v>
       </c>
-    </row>
-    <row r="48" spans="1:18">
+      <c r="S47" t="s">
+        <v>31</v>
+      </c>
+      <c r="T47">
+        <v>5</v>
+      </c>
+      <c r="U47">
+        <v>0.38900017738342202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21">
       <c r="A48" t="s">
         <v>9</v>
       </c>
@@ -2400,8 +2510,17 @@
       <c r="N48">
         <v>0.17200016975402799</v>
       </c>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="S48" t="s">
+        <v>32</v>
+      </c>
+      <c r="T48">
+        <v>4</v>
+      </c>
+      <c r="U48">
+        <v>0.105000019073486</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -2441,8 +2560,17 @@
       <c r="N49">
         <v>0.11599993705749501</v>
       </c>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="S49" t="s">
+        <v>0</v>
+      </c>
+      <c r="T49" t="s">
+        <v>1</v>
+      </c>
+      <c r="U49" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21">
       <c r="A50" t="s">
         <v>11</v>
       </c>
@@ -2482,8 +2610,17 @@
       <c r="N50">
         <v>0.62200021743774403</v>
       </c>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="S50" t="s">
+        <v>28</v>
+      </c>
+      <c r="T50">
+        <v>36</v>
+      </c>
+      <c r="U50">
+        <v>3.19998264312744E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -2523,8 +2660,17 @@
       <c r="N51">
         <v>0.33099985122680597</v>
       </c>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="S51" t="s">
+        <v>29</v>
+      </c>
+      <c r="T51">
+        <v>80</v>
+      </c>
+      <c r="U51">
+        <v>1.0390000343322701</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -2564,8 +2710,17 @@
       <c r="N52">
         <v>6.3000202178954995E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="S52" t="s">
+        <v>30</v>
+      </c>
+      <c r="T52">
+        <v>10</v>
+      </c>
+      <c r="U52">
+        <v>0.48799991607665999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -2605,8 +2760,17 @@
       <c r="N53">
         <v>0.20799994468688901</v>
       </c>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="S53" t="s">
+        <v>31</v>
+      </c>
+      <c r="T53">
+        <v>11</v>
+      </c>
+      <c r="U53">
+        <v>0.22400021553039501</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -2646,8 +2810,17 @@
       <c r="N54">
         <v>7.5000047683715806E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="S54" t="s">
+        <v>32</v>
+      </c>
+      <c r="T54">
+        <v>9</v>
+      </c>
+      <c r="U54">
+        <v>6.2999963760375893E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21">
       <c r="A55" t="s">
         <v>5</v>
       </c>
@@ -2684,8 +2857,17 @@
       <c r="N55">
         <v>0.171999931335449</v>
       </c>
-    </row>
-    <row r="56" spans="1:14">
+      <c r="S55" t="s">
+        <v>0</v>
+      </c>
+      <c r="T55" t="s">
+        <v>1</v>
+      </c>
+      <c r="U55" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21">
       <c r="A56" t="s">
         <v>6</v>
       </c>
@@ -2722,8 +2904,17 @@
       <c r="N56">
         <v>0.22399997711181599</v>
       </c>
-    </row>
-    <row r="57" spans="1:14">
+      <c r="S56" t="s">
+        <v>28</v>
+      </c>
+      <c r="T56">
+        <v>45</v>
+      </c>
+      <c r="U56">
+        <v>3.90000343322753E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:21">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -2760,8 +2951,17 @@
       <c r="N57">
         <v>0.15600013732910101</v>
       </c>
-    </row>
-    <row r="58" spans="1:14">
+      <c r="S57" t="s">
+        <v>29</v>
+      </c>
+      <c r="T57">
+        <v>84</v>
+      </c>
+      <c r="U57">
+        <v>1.0329999923705999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21">
       <c r="A58" t="s">
         <v>8</v>
       </c>
@@ -2798,8 +2998,17 @@
       <c r="N58">
         <v>0.17299985885620101</v>
       </c>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="S58" t="s">
+        <v>30</v>
+      </c>
+      <c r="T58">
+        <v>22</v>
+      </c>
+      <c r="U58">
+        <v>0.57899999618530196</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21">
       <c r="A59" t="s">
         <v>9</v>
       </c>
@@ -2836,8 +3045,17 @@
       <c r="N59">
         <v>0.11000013351440401</v>
       </c>
-    </row>
-    <row r="60" spans="1:14">
+      <c r="S59" t="s">
+        <v>31</v>
+      </c>
+      <c r="T59">
+        <v>22</v>
+      </c>
+      <c r="U59">
+        <v>0.21900010108947701</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21">
       <c r="A60" t="s">
         <v>10</v>
       </c>
@@ -2874,8 +3092,17 @@
       <c r="N60">
         <v>0.61100006103515603</v>
       </c>
-    </row>
-    <row r="61" spans="1:14">
+      <c r="S60" t="s">
+        <v>32</v>
+      </c>
+      <c r="T60">
+        <v>21</v>
+      </c>
+      <c r="U60">
+        <v>6.2999963760375893E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21">
       <c r="A61" t="s">
         <v>11</v>
       </c>
@@ -2912,8 +3139,17 @@
       <c r="N61">
         <v>0.32999992370605402</v>
       </c>
-    </row>
-    <row r="62" spans="1:14">
+      <c r="S61" t="s">
+        <v>0</v>
+      </c>
+      <c r="T61" t="s">
+        <v>1</v>
+      </c>
+      <c r="U61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -2950,8 +3186,17 @@
       <c r="N62">
         <v>7.7999830245971596E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:14">
+      <c r="S62" t="s">
+        <v>28</v>
+      </c>
+      <c r="T62">
+        <v>61</v>
+      </c>
+      <c r="U62">
+        <v>3.90000343322753E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:21">
       <c r="A63" t="s">
         <v>0</v>
       </c>
@@ -2988,8 +3233,17 @@
       <c r="N63">
         <v>0.20300006866455</v>
       </c>
-    </row>
-    <row r="64" spans="1:14">
+      <c r="S63" t="s">
+        <v>29</v>
+      </c>
+      <c r="T63">
+        <v>89</v>
+      </c>
+      <c r="U63">
+        <v>1.3589999675750699</v>
+      </c>
+    </row>
+    <row r="64" spans="1:21">
       <c r="A64" t="s">
         <v>3</v>
       </c>
@@ -3026,8 +3280,17 @@
       <c r="N64">
         <v>7.7999830245971596E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="S64" t="s">
+        <v>30</v>
+      </c>
+      <c r="T64">
+        <v>48</v>
+      </c>
+      <c r="U64">
+        <v>0.38700008392333901</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23">
       <c r="A65" t="s">
         <v>4</v>
       </c>
@@ -3037,8 +3300,17 @@
       <c r="C65">
         <v>0.20000004768371499</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="S65" t="s">
+        <v>31</v>
+      </c>
+      <c r="T65">
+        <v>49</v>
+      </c>
+      <c r="U65">
+        <v>0.27699995040893499</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23">
       <c r="A66" t="s">
         <v>5</v>
       </c>
@@ -3048,8 +3320,17 @@
       <c r="C66">
         <v>0.16899991035461401</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="S66" t="s">
+        <v>32</v>
+      </c>
+      <c r="T66">
+        <v>49</v>
+      </c>
+      <c r="U66">
+        <v>6.2999963760375893E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:23">
       <c r="A67" t="s">
         <v>6</v>
       </c>
@@ -3059,8 +3340,56 @@
       <c r="C67">
         <v>0.16499996185302701</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="H67" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K67" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L67" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M67" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="O67" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="U67" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="V67" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="W67" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -3070,8 +3399,56 @@
       <c r="C68">
         <v>0.107000112533569</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="H68" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="I68">
+        <v>100</v>
+      </c>
+      <c r="J68">
+        <v>88</v>
+      </c>
+      <c r="K68">
+        <v>82</v>
+      </c>
+      <c r="L68">
+        <v>67</v>
+      </c>
+      <c r="M68">
+        <v>56</v>
+      </c>
+      <c r="N68">
+        <v>10</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+      <c r="V68">
+        <v>0</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23">
       <c r="A69" t="s">
         <v>8</v>
       </c>
@@ -3081,8 +3458,56 @@
       <c r="C69">
         <v>0.61199998855590798</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="H69" s="2">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="I69">
+        <v>100</v>
+      </c>
+      <c r="J69">
+        <v>88</v>
+      </c>
+      <c r="K69">
+        <v>83</v>
+      </c>
+      <c r="L69">
+        <v>69</v>
+      </c>
+      <c r="M69">
+        <v>59</v>
+      </c>
+      <c r="N69">
+        <v>12</v>
+      </c>
+      <c r="O69">
+        <v>1</v>
+      </c>
+      <c r="P69">
+        <v>0</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>1</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+      <c r="V69">
+        <v>0</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:23">
       <c r="A70" t="s">
         <v>9</v>
       </c>
@@ -3092,8 +3517,56 @@
       <c r="C70">
         <v>0.33799982070922802</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="H70" s="2">
+        <v>0.6</v>
+      </c>
+      <c r="I70">
+        <v>100</v>
+      </c>
+      <c r="J70">
+        <v>89</v>
+      </c>
+      <c r="K70">
+        <v>85</v>
+      </c>
+      <c r="L70">
+        <v>70</v>
+      </c>
+      <c r="M70">
+        <v>63</v>
+      </c>
+      <c r="N70">
+        <v>15</v>
+      </c>
+      <c r="O70">
+        <v>2</v>
+      </c>
+      <c r="P70">
+        <v>0</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>2</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0</v>
+      </c>
+      <c r="U70">
+        <v>0</v>
+      </c>
+      <c r="V70">
+        <v>0</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -3103,8 +3576,56 @@
       <c r="C71">
         <v>6.2999963760375893E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="H71" s="2">
+        <v>0.65</v>
+      </c>
+      <c r="I71">
+        <v>100</v>
+      </c>
+      <c r="J71">
+        <v>89</v>
+      </c>
+      <c r="K71">
+        <v>86</v>
+      </c>
+      <c r="L71">
+        <v>71</v>
+      </c>
+      <c r="M71">
+        <v>65</v>
+      </c>
+      <c r="N71">
+        <v>18</v>
+      </c>
+      <c r="O71">
+        <v>2</v>
+      </c>
+      <c r="P71">
+        <v>0</v>
+      </c>
+      <c r="Q71">
+        <v>0</v>
+      </c>
+      <c r="R71">
+        <v>2</v>
+      </c>
+      <c r="S71">
+        <v>1</v>
+      </c>
+      <c r="T71">
+        <v>0</v>
+      </c>
+      <c r="U71">
+        <v>0</v>
+      </c>
+      <c r="V71">
+        <v>0</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23">
       <c r="A72" t="s">
         <v>11</v>
       </c>
@@ -3114,8 +3635,56 @@
       <c r="C72">
         <v>0.21900010108947701</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="H72" s="2">
+        <v>0.7</v>
+      </c>
+      <c r="I72">
+        <v>100</v>
+      </c>
+      <c r="J72">
+        <v>89</v>
+      </c>
+      <c r="K72">
+        <v>86</v>
+      </c>
+      <c r="L72">
+        <v>74</v>
+      </c>
+      <c r="M72">
+        <v>68</v>
+      </c>
+      <c r="N72">
+        <v>20</v>
+      </c>
+      <c r="O72">
+        <v>4</v>
+      </c>
+      <c r="P72">
+        <v>0</v>
+      </c>
+      <c r="Q72">
+        <v>1</v>
+      </c>
+      <c r="R72">
+        <v>3</v>
+      </c>
+      <c r="S72">
+        <v>1</v>
+      </c>
+      <c r="T72">
+        <v>0</v>
+      </c>
+      <c r="U72">
+        <v>1</v>
+      </c>
+      <c r="V72">
+        <v>1</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -3125,8 +3694,56 @@
       <c r="C73">
         <v>8.0000162124633706E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="H73" s="2">
+        <v>0.75</v>
+      </c>
+      <c r="I73">
+        <v>100</v>
+      </c>
+      <c r="J73">
+        <v>90</v>
+      </c>
+      <c r="K73">
+        <v>88</v>
+      </c>
+      <c r="L73">
+        <v>76</v>
+      </c>
+      <c r="M73">
+        <v>70</v>
+      </c>
+      <c r="N73">
+        <v>23</v>
+      </c>
+      <c r="O73">
+        <v>6</v>
+      </c>
+      <c r="P73">
+        <v>2</v>
+      </c>
+      <c r="Q73">
+        <v>2</v>
+      </c>
+      <c r="R73">
+        <v>4</v>
+      </c>
+      <c r="S73">
+        <v>3</v>
+      </c>
+      <c r="T73">
+        <v>2</v>
+      </c>
+      <c r="U73">
+        <v>2</v>
+      </c>
+      <c r="V73">
+        <v>3</v>
+      </c>
+      <c r="W73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:23">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -3136,8 +3753,56 @@
       <c r="C74" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="H74" s="2">
+        <v>0.8</v>
+      </c>
+      <c r="I74">
+        <v>100</v>
+      </c>
+      <c r="J74">
+        <v>90</v>
+      </c>
+      <c r="K74">
+        <v>89</v>
+      </c>
+      <c r="L74">
+        <v>78</v>
+      </c>
+      <c r="M74">
+        <v>73</v>
+      </c>
+      <c r="N74">
+        <v>29</v>
+      </c>
+      <c r="O74">
+        <v>10</v>
+      </c>
+      <c r="P74">
+        <v>4</v>
+      </c>
+      <c r="Q74">
+        <v>5</v>
+      </c>
+      <c r="R74">
+        <v>6</v>
+      </c>
+      <c r="S74">
+        <v>6</v>
+      </c>
+      <c r="T74">
+        <v>5</v>
+      </c>
+      <c r="U74">
+        <v>4</v>
+      </c>
+      <c r="V74">
+        <v>5</v>
+      </c>
+      <c r="W74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:23">
       <c r="A75" t="s">
         <v>3</v>
       </c>
@@ -3147,8 +3812,56 @@
       <c r="C75">
         <v>0.16499996185302701</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="H75" s="2">
+        <v>0.85</v>
+      </c>
+      <c r="I75">
+        <v>100</v>
+      </c>
+      <c r="J75">
+        <v>92</v>
+      </c>
+      <c r="K75">
+        <v>90</v>
+      </c>
+      <c r="L75">
+        <v>80</v>
+      </c>
+      <c r="M75">
+        <v>77</v>
+      </c>
+      <c r="N75">
+        <v>36</v>
+      </c>
+      <c r="O75">
+        <v>15</v>
+      </c>
+      <c r="P75">
+        <v>8</v>
+      </c>
+      <c r="Q75">
+        <v>11</v>
+      </c>
+      <c r="R75">
+        <v>10</v>
+      </c>
+      <c r="S75">
+        <v>13</v>
+      </c>
+      <c r="T75">
+        <v>12</v>
+      </c>
+      <c r="U75">
+        <v>10</v>
+      </c>
+      <c r="V75">
+        <v>11</v>
+      </c>
+      <c r="W75">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23">
       <c r="A76" t="s">
         <v>4</v>
       </c>
@@ -3158,8 +3871,56 @@
       <c r="C76">
         <v>0.20300006866455</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="H76" s="2">
+        <v>0.9</v>
+      </c>
+      <c r="I76">
+        <v>100</v>
+      </c>
+      <c r="J76">
+        <v>93</v>
+      </c>
+      <c r="K76">
+        <v>92</v>
+      </c>
+      <c r="L76">
+        <v>84</v>
+      </c>
+      <c r="M76">
+        <v>81</v>
+      </c>
+      <c r="N76">
+        <v>45</v>
+      </c>
+      <c r="O76">
+        <v>26</v>
+      </c>
+      <c r="P76">
+        <v>20</v>
+      </c>
+      <c r="Q76">
+        <v>23</v>
+      </c>
+      <c r="R76">
+        <v>20</v>
+      </c>
+      <c r="S76">
+        <v>26</v>
+      </c>
+      <c r="T76">
+        <v>26</v>
+      </c>
+      <c r="U76">
+        <v>22</v>
+      </c>
+      <c r="V76">
+        <v>22</v>
+      </c>
+      <c r="W76">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23">
       <c r="A77" t="s">
         <v>5</v>
       </c>
@@ -3169,8 +3930,56 @@
       <c r="C77">
         <v>0.15599989891052199</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="H77" s="2">
+        <v>0.95</v>
+      </c>
+      <c r="I77">
+        <v>100</v>
+      </c>
+      <c r="J77">
+        <v>95</v>
+      </c>
+      <c r="K77">
+        <v>94</v>
+      </c>
+      <c r="L77">
+        <v>89</v>
+      </c>
+      <c r="M77">
+        <v>89</v>
+      </c>
+      <c r="N77">
+        <v>61</v>
+      </c>
+      <c r="O77">
+        <v>49</v>
+      </c>
+      <c r="P77">
+        <v>46</v>
+      </c>
+      <c r="Q77">
+        <v>44</v>
+      </c>
+      <c r="R77">
+        <v>43</v>
+      </c>
+      <c r="S77">
+        <v>48</v>
+      </c>
+      <c r="T77">
+        <v>49</v>
+      </c>
+      <c r="U77">
+        <v>48</v>
+      </c>
+      <c r="V77">
+        <v>49</v>
+      </c>
+      <c r="W77">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23">
       <c r="A78" t="s">
         <v>6</v>
       </c>
@@ -3180,8 +3989,56 @@
       <c r="C78">
         <v>0.169000148773193</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="H78" s="2">
+        <v>1</v>
+      </c>
+      <c r="I78">
+        <v>100</v>
+      </c>
+      <c r="J78">
+        <v>100</v>
+      </c>
+      <c r="K78">
+        <v>100</v>
+      </c>
+      <c r="L78">
+        <v>100</v>
+      </c>
+      <c r="M78">
+        <v>100</v>
+      </c>
+      <c r="N78">
+        <v>100</v>
+      </c>
+      <c r="O78">
+        <v>100</v>
+      </c>
+      <c r="P78">
+        <v>100</v>
+      </c>
+      <c r="Q78">
+        <v>100</v>
+      </c>
+      <c r="R78">
+        <v>100</v>
+      </c>
+      <c r="S78">
+        <v>100</v>
+      </c>
+      <c r="T78">
+        <v>100</v>
+      </c>
+      <c r="U78">
+        <v>100</v>
+      </c>
+      <c r="V78">
+        <v>100</v>
+      </c>
+      <c r="W78">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:23">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -3192,7 +4049,7 @@
         <v>9.3999862670898396E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:23">
       <c r="A80" t="s">
         <v>8</v>
       </c>
@@ -5912,9 +6769,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
 
